--- a/html/cms/static/file/简历库模板.xlsx
+++ b/html/cms/static/file/简历库模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,13 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,24 +405,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="25.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.25" style="3" customWidth="1"/>
     <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -461,17 +458,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="不可为空" sqref="A1 C1 D1 E1 F1 G1 H1 I1 J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="不可为空" sqref="A1 C1:J1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="不可为空" sqref="B1:B1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
